--- a/Total Profit.xlsx
+++ b/Total Profit.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16380.69</v>
+        <v>10953.69</v>
       </c>
     </row>
   </sheetData>

--- a/Total Profit.xlsx
+++ b/Total Profit.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10953.69</v>
+        <v>11003.69</v>
       </c>
     </row>
   </sheetData>
